--- a/Katalon_Studio_Windows_64-7.9.1/My First Web UI Project/Data/Data_taoTK.xlsx
+++ b/Katalon_Studio_Windows_64-7.9.1/My First Web UI Project/Data/Data_taoTK.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Do_An_Tot_Nghiep\Katalon_Studio_Windows_64-7.9.1\My First Web UI Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,14 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,345 +180,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -676,255 +352,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,7 +374,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -951,7 +388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,19 +409,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,7 +427,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,68 +443,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1328,21 +719,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="30.75" spans="1:7">
+    <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="60.75" spans="1:7">
+    <row r="2" spans="1:7" ht="57.6">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="60.75" spans="1:7">
+    <row r="3" spans="1:7" ht="57.6">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
         <v>8</v>
@@ -1409,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="75.75" spans="1:7">
+    <row r="4" spans="1:7" ht="57.6">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -1432,7 +830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="60.75" spans="1:7">
+    <row r="5" spans="1:7" ht="57.6">
       <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
@@ -1455,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="60.75" spans="1:7">
+    <row r="6" spans="1:7" ht="57.6">
       <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="60.75" spans="1:7">
+    <row r="7" spans="1:7" ht="57.6">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="60.75" spans="1:7">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="60.75" spans="1:7">
+    <row r="9" spans="1:7" ht="57.6">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1545,7 +943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="105.75" spans="1:7">
+    <row r="10" spans="1:7" ht="86.4">
       <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="60.75" spans="1:7">
+    <row r="11" spans="1:7" ht="57.6">
       <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="30.75" spans="1:7">
+    <row r="12" spans="1:7" ht="28.8">
       <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="45.75" spans="1:7">
+    <row r="13" spans="1:7" ht="43.2">
       <c r="A13" s="18" t="s">
         <v>7</v>
       </c>
@@ -1637,14 +1035,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="45.75" spans="1:7">
+    <row r="14" spans="1:7" ht="43.2">
       <c r="A14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="9">
@@ -1660,30 +1058,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="45.75" spans="1:7">
+    <row r="15" spans="1:7" ht="43.2">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="9">
         <v>334218638</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="75.75" spans="1:7">
+    <row r="16" spans="1:7" ht="72">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -1706,14 +1104,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="60.75" spans="1:7">
+    <row r="17" spans="1:7" ht="57.6">
       <c r="A17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9">
@@ -1729,7 +1127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="75.75" spans="1:7">
+    <row r="18" spans="1:7" ht="72">
       <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="75.75" spans="1:7">
+    <row r="19" spans="1:7" ht="72">
       <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="75.75" spans="1:7">
+    <row r="20" spans="1:7" ht="72">
       <c r="A20" s="18" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1181,7 @@
       <c r="C20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1796,7 +1194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="75.75" spans="1:7">
+    <row r="21" spans="1:7" ht="72">
       <c r="A21" s="18" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1204,7 @@
       <c r="C21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="5">
@@ -1819,7 +1217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="75.75" spans="1:7">
+    <row r="22" spans="1:7" ht="72">
       <c r="A22" s="18" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1227,7 @@
       <c r="C22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>33421683</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1842,7 +1240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="75.75" spans="1:7">
+    <row r="23" spans="1:7" ht="72">
       <c r="A23" s="18" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +1263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" ht="75.75" spans="1:7">
+    <row r="24" spans="1:7" ht="72">
       <c r="A24" s="18" t="s">
         <v>7</v>
       </c>
@@ -1875,20 +1273,20 @@
       <c r="C24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" ht="75.75" spans="1:7">
+    <row r="25" spans="1:7" ht="72">
       <c r="A25" s="18" t="s">
         <v>7</v>
       </c>
@@ -1898,20 +1296,20 @@
       <c r="C25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="29">
         <v>334216838</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="E25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="28" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" ht="75.75" spans="1:7">
+    <row r="26" spans="1:7" ht="72">
       <c r="A26" s="18" t="s">
         <v>7</v>
       </c>
@@ -1921,18 +1319,18 @@
       <c r="C26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="30">
-        <v>334218638</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="29" t="s">
+      <c r="D26" s="29">
+        <v>334218638</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="28" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="75.75" spans="1:7">
+    <row r="27" spans="1:7" ht="72">
       <c r="A27" s="18" t="s">
         <v>7</v>
       </c>
@@ -1942,20 +1340,20 @@
       <c r="C27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="30">
-        <v>334218638</v>
-      </c>
-      <c r="E27" s="31" t="s">
+      <c r="D27" s="29">
+        <v>334218638</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" ht="90.75" spans="1:7">
+    <row r="28" spans="1:7" ht="86.4">
       <c r="A28" s="18" t="s">
         <v>7</v>
       </c>
@@ -1965,20 +1363,20 @@
       <c r="C28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="30">
-        <v>334218638</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="D28" s="29">
+        <v>334218638</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="28" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" ht="75.75" spans="1:7">
+    <row r="29" spans="1:7" ht="72">
       <c r="A29" s="18" t="s">
         <v>7</v>
       </c>
@@ -1988,20 +1386,20 @@
       <c r="C29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="30">
-        <v>334218638</v>
-      </c>
-      <c r="E29" s="31" t="s">
+      <c r="D29" s="29">
+        <v>334218638</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="28" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" ht="75.75" spans="1:7">
+    <row r="30" spans="1:7" ht="72">
       <c r="A30" s="18" t="s">
         <v>7</v>
       </c>
@@ -2011,10 +1409,10 @@
       <c r="C30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="30">
-        <v>334218638</v>
-      </c>
-      <c r="E30" s="32" t="s">
+      <c r="D30" s="29">
+        <v>334218638</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="9"/>
@@ -2022,7 +1420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="75.75" spans="1:7">
+    <row r="31" spans="1:7" ht="72">
       <c r="A31" s="18" t="s">
         <v>7</v>
       </c>
@@ -2032,20 +1430,20 @@
       <c r="C31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="30">
-        <v>334218638</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="33" t="s">
+      <c r="D31" s="29">
+        <v>334218638</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" ht="90.75" spans="1:7">
+    <row r="32" spans="1:7" ht="86.4">
       <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
@@ -2055,10 +1453,10 @@
       <c r="C32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="30">
-        <v>334218638</v>
-      </c>
-      <c r="E32" s="32" t="s">
+      <c r="D32" s="29">
+        <v>334218638</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -2068,7 +1466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" ht="90.75" spans="1:7">
+    <row r="33" spans="1:7" ht="86.4">
       <c r="A33" s="18" t="s">
         <v>7</v>
       </c>
@@ -2078,10 +1476,10 @@
       <c r="C33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="30">
-        <v>334218638</v>
-      </c>
-      <c r="E33" s="32" t="s">
+      <c r="D33" s="29">
+        <v>334218638</v>
+      </c>
+      <c r="E33" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -2093,14 +1491,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="!@#$%^&amp;*("/>
-    <hyperlink ref="C2" r:id="rId2" display="nguyenquocbao1999.43@gmail.com"/>
-    <hyperlink ref="C3:C11" r:id="rId2" display="nguyenquocbao1999.43@gmail.com"/>
-    <hyperlink ref="C13" r:id="rId3" display="bao@gmail.com"/>
-    <hyperlink ref="D24" r:id="rId4" display="!@#$%^"/>
-    <hyperlink ref="C17" r:id="rId5" display="hoangmen200799@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3:C11" r:id="rId3" display="nguyenquocbao1999.43@gmail.com"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="D24" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>